--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.93065934721557</v>
+        <v>84.23651971999995</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.99977207291991</v>
+        <v>115.2561225338274</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.17382891370256</v>
+        <v>104.2562399622127</v>
       </c>
       <c r="AD2" t="n">
-        <v>59930.65934721557</v>
+        <v>84236.51971999995</v>
       </c>
       <c r="AE2" t="n">
-        <v>81999.77207291991</v>
+        <v>115256.1225338274</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.234403283418729e-06</v>
+        <v>9.685016516632977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.902199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>74173.82891370257</v>
+        <v>104256.2399622127</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.29789026366152</v>
+        <v>81.60375063644591</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.39750126322853</v>
+        <v>111.653851724136</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.91535377426818</v>
+        <v>100.9977648227783</v>
       </c>
       <c r="AD3" t="n">
-        <v>57297.89026366152</v>
+        <v>81603.75063644591</v>
       </c>
       <c r="AE3" t="n">
-        <v>78397.50126322854</v>
+        <v>111653.851724136</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.530501988237878e-06</v>
+        <v>1.023287664346182e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.748842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>70915.35377426818</v>
+        <v>100997.7648227783</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.31025062933685</v>
+        <v>78.75233404019937</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.67792502707495</v>
+        <v>107.7524177415315</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.45533007714299</v>
+        <v>97.46867822377526</v>
       </c>
       <c r="AD2" t="n">
-        <v>55310.25062933685</v>
+        <v>78752.33404019938</v>
       </c>
       <c r="AE2" t="n">
-        <v>75677.92502707495</v>
+        <v>107752.4177415315</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.608058490984626e-06</v>
+        <v>1.068982498893525e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.803819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>68455.33007714299</v>
+        <v>97468.67822377526</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.76435167415141</v>
+        <v>73.2278836738932</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.87695492831402</v>
+        <v>100.193621028806</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.68097887903943</v>
+        <v>90.63128246047206</v>
       </c>
       <c r="AD2" t="n">
-        <v>62764.3516741514</v>
+        <v>73227.8836738932</v>
       </c>
       <c r="AE2" t="n">
-        <v>85876.95492831402</v>
+        <v>100193.621028806</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.379639750273022e-06</v>
+        <v>1.145722480057358e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.26099537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>77680.97887903942</v>
+        <v>90631.28246047207</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.5507492895252</v>
+        <v>74.40900052735397</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.90225355333945</v>
+        <v>101.8096772149082</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.04000338967141</v>
+        <v>92.09310451232233</v>
       </c>
       <c r="AD2" t="n">
-        <v>52550.7492895252</v>
+        <v>74409.00052735397</v>
       </c>
       <c r="AE2" t="n">
-        <v>71902.25355333945</v>
+        <v>101809.6772149082</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.621235426210117e-06</v>
+        <v>1.141305135427436e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.986111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>65040.00338967142</v>
+        <v>92093.10451232233</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.55648125830943</v>
+        <v>83.64945785229612</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.96078157164933</v>
+        <v>114.4528785870937</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.6613666286954</v>
+        <v>103.529656490395</v>
       </c>
       <c r="AD2" t="n">
-        <v>63556.48125830942</v>
+        <v>83649.45785229612</v>
       </c>
       <c r="AE2" t="n">
-        <v>86960.78157164934</v>
+        <v>114452.8785870937</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.967463967141861e-06</v>
+        <v>1.106157198968883e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.668981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>78661.36662869541</v>
+        <v>103529.656490395</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.73726339154934</v>
+        <v>79.4063831921611</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.26218272680731</v>
+        <v>108.6473166458572</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.98382704202392</v>
+        <v>98.27816923267089</v>
       </c>
       <c r="AD2" t="n">
-        <v>55737.26339154934</v>
+        <v>79406.3831921611</v>
       </c>
       <c r="AE2" t="n">
-        <v>76262.18272680731</v>
+        <v>108647.3166458572</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.599570395077093e-06</v>
+        <v>1.058746426290774e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.783564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>68983.82704202391</v>
+        <v>98278.16923267089</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.84904378276289</v>
+        <v>79.51816358337464</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.41512558946843</v>
+        <v>108.8002595085183</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.12217325252936</v>
+        <v>98.41651544317634</v>
       </c>
       <c r="AD3" t="n">
-        <v>55849.04378276289</v>
+        <v>79518.16358337464</v>
       </c>
       <c r="AE3" t="n">
-        <v>76415.12558946843</v>
+        <v>108800.2595085183</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.598116674433377e-06</v>
+        <v>1.058471562073028e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.783564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>69122.17325252936</v>
+        <v>98416.51544317634</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.92450887799615</v>
+        <v>94.43843550157284</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.5150184828799</v>
+        <v>129.2148337829279</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.73112899963165</v>
+        <v>116.8827514008777</v>
       </c>
       <c r="AD2" t="n">
-        <v>74924.50887799615</v>
+        <v>94438.43550157284</v>
       </c>
       <c r="AE2" t="n">
-        <v>102515.0184828799</v>
+        <v>129214.8337829279</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.616328444389614e-06</v>
+        <v>1.05832410903051e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.039351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>92731.12899963165</v>
+        <v>116882.7514008777</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.74789222453023</v>
+        <v>76.45313270327227</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.54023733123135</v>
+        <v>104.6065490387452</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.52166029472652</v>
+        <v>94.62304681472747</v>
       </c>
       <c r="AD2" t="n">
-        <v>53747.89222453022</v>
+        <v>76453.13270327228</v>
       </c>
       <c r="AE2" t="n">
-        <v>73540.23733123136</v>
+        <v>104606.5490387452</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.667205022268639e-06</v>
+        <v>1.110764352324613e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.858796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>66521.66029472652</v>
+        <v>94623.04681472748</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.85477468642197</v>
+        <v>78.0611883638592</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.05472274779869</v>
+        <v>106.806761735968</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.89160534873078</v>
+        <v>96.61327430014595</v>
       </c>
       <c r="AD2" t="n">
-        <v>54854.77468642197</v>
+        <v>78061.1883638592</v>
       </c>
       <c r="AE2" t="n">
-        <v>75054.72274779869</v>
+        <v>106806.761735968</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.624085958431801e-06</v>
+        <v>1.081344740142337e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.821180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>67891.60534873078</v>
+        <v>96613.27430014595</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.85930707759723</v>
+        <v>81.95967710176437</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.16565651601678</v>
+        <v>112.1408460163519</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.61019736784321</v>
+        <v>101.438281063246</v>
       </c>
       <c r="AD2" t="n">
-        <v>57859.30707759723</v>
+        <v>81959.67710176438</v>
       </c>
       <c r="AE2" t="n">
-        <v>79165.65651601678</v>
+        <v>112140.8460163519</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.416745347680607e-06</v>
+        <v>1.009098574196335e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.826967592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>71610.19736784321</v>
+        <v>101438.281063246</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.86826144871296</v>
+        <v>80.96863147288009</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.80966416473058</v>
+        <v>110.7848536650657</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.38361902341612</v>
+        <v>100.2117027188189</v>
       </c>
       <c r="AD3" t="n">
-        <v>56868.26144871295</v>
+        <v>80968.63147288009</v>
       </c>
       <c r="AE3" t="n">
-        <v>77809.66416473058</v>
+        <v>110784.8536650657</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.551367261043829e-06</v>
+        <v>1.034177615596828e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.760416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>70383.61902341612</v>
+        <v>100211.7027188189</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.87932712014737</v>
+        <v>75.03495324379354</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.35182823702731</v>
+        <v>102.6661333366253</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.44667129653027</v>
+        <v>92.86782166382672</v>
       </c>
       <c r="AD2" t="n">
-        <v>52879.32712014737</v>
+        <v>75034.95324379354</v>
       </c>
       <c r="AE2" t="n">
-        <v>72351.82823702731</v>
+        <v>102666.1333366253</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.656090349923248e-06</v>
+        <v>1.133761814586059e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.93113425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>65446.67129653027</v>
+        <v>92867.82166382672</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.94167580558145</v>
+        <v>73.58701432100439</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.11957762792504</v>
+        <v>100.6849994239092</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.90044600872274</v>
+        <v>91.07576439120074</v>
       </c>
       <c r="AD2" t="n">
-        <v>62941.67580558145</v>
+        <v>73587.01432100439</v>
       </c>
       <c r="AE2" t="n">
-        <v>86119.57762792504</v>
+        <v>100684.9994239092</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.491350318824897e-06</v>
+        <v>1.148824828459179e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.142361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>77900.44600872273</v>
+        <v>91075.76439120073</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.98856942019164</v>
+        <v>83.34874762538716</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.18373954023495</v>
+        <v>114.0414335882382</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.95848439817362</v>
+        <v>103.1574792247634</v>
       </c>
       <c r="AD2" t="n">
-        <v>62988.56942019164</v>
+        <v>83348.74762538716</v>
       </c>
       <c r="AE2" t="n">
-        <v>86183.73954023495</v>
+        <v>114041.4335882382</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.201348404471661e-06</v>
+        <v>1.13069812400963e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.431712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>77958.48439817362</v>
+        <v>103157.4792247634</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.83723911926626</v>
+        <v>106.289030287816</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.5003444995727</v>
+        <v>145.4293403808014</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.33610109473281</v>
+        <v>131.5497682462583</v>
       </c>
       <c r="AD2" t="n">
-        <v>77837.23911926626</v>
+        <v>106289.030287816</v>
       </c>
       <c r="AE2" t="n">
-        <v>106500.3444995727</v>
+        <v>145429.3403808014</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.086013744999412e-06</v>
+        <v>9.718693865806965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.690393518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>96336.10109473282</v>
+        <v>131549.7682462583</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.16540513593635</v>
+        <v>77.12657688367158</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.11149691598662</v>
+        <v>105.5279850766275</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.03839966648076</v>
+        <v>95.45654229039812</v>
       </c>
       <c r="AD2" t="n">
-        <v>54165.40513593635</v>
+        <v>77126.57688367157</v>
       </c>
       <c r="AE2" t="n">
-        <v>74111.49691598662</v>
+        <v>105527.9850766275</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.665551340974259e-06</v>
+        <v>1.099444539488176e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.829861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>67038.39966648076</v>
+        <v>95456.54229039812</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.37272725524218</v>
+        <v>80.26104780891917</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.13165241979848</v>
+        <v>109.8167064796468</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.77031576782468</v>
+        <v>99.33595414197292</v>
       </c>
       <c r="AD2" t="n">
-        <v>56372.72725524218</v>
+        <v>80261.04780891917</v>
       </c>
       <c r="AE2" t="n">
-        <v>77131.65241979848</v>
+        <v>109816.7064796468</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.560124141834413e-06</v>
+        <v>1.043297373337166e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>69770.31576782468</v>
+        <v>99335.95414197292</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.20915136463664</v>
+        <v>80.09747191831362</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.9078406698131</v>
+        <v>109.5928947296614</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.56786429713605</v>
+        <v>99.1335026712843</v>
       </c>
       <c r="AD3" t="n">
-        <v>56209.15136463664</v>
+        <v>80097.47191831362</v>
       </c>
       <c r="AE3" t="n">
-        <v>76907.8406698131</v>
+        <v>109592.8947296614</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.593112090834583e-06</v>
+        <v>1.049487206453428e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.760416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>69567.86429713605</v>
+        <v>99133.50267128431</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.738012689394</v>
+        <v>131.1333402330733</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.9389255596887</v>
+        <v>179.4224213014846</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.3924737168435</v>
+        <v>162.298597233471</v>
       </c>
       <c r="AD2" t="n">
-        <v>103738.012689394</v>
+        <v>131133.3402330733</v>
       </c>
       <c r="AE2" t="n">
-        <v>141938.9255596887</v>
+        <v>179422.4213014846</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243884610833789e-06</v>
+        <v>8.112709234811413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.116898148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>128392.4737168435</v>
+        <v>162298.597233471</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.26408204246653</v>
+        <v>74.07811852536037</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.56070806479032</v>
+        <v>101.3569498622971</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.29947557582418</v>
+        <v>91.68358482283743</v>
       </c>
       <c r="AD2" t="n">
-        <v>63264.08204246653</v>
+        <v>74078.11852536036</v>
       </c>
       <c r="AE2" t="n">
-        <v>86560.70806479032</v>
+        <v>101356.9498622971</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.563099741408958e-06</v>
+        <v>1.145599927335048e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.058449074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>78299.47557582418</v>
+        <v>91683.58482283744</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.31274836107046</v>
+        <v>75.75002216404565</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.94485430005363</v>
+        <v>103.6445221799281</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.98309978441885</v>
+        <v>93.75283444910232</v>
       </c>
       <c r="AD2" t="n">
-        <v>53312.74836107046</v>
+        <v>75750.02216404564</v>
       </c>
       <c r="AE2" t="n">
-        <v>72944.85430005363</v>
+        <v>103644.5221799281</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.658430657837117e-06</v>
+        <v>1.121039291693175e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.893518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>65983.09978441885</v>
+        <v>93752.83444910232</v>
       </c>
     </row>
   </sheetData>
